--- a/BOM表.xlsx
+++ b/BOM表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Inverted_Pendulum_DengFOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\莱洛清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B63FA59-D62C-4EB6-9BE7-9DD7E663C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E00D7C-A61B-4F7C-BC9A-B77DA931AEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1884" windowWidth="17556" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>电控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,43 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜邦线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆杆打印件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动量轮打印件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基座打印件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6701ZZ轴承</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4S电池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3x5螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2*5螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2x10螺丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +93,78 @@
       </rPr>
       <t>https://item.taobao.com/item.htm?id=647180650088&amp;price=6.3&amp;sourceType=item&amp;sourceType=item&amp;suid=6bd855ab-8a6a-4c26-b2ab-577e9397601e&amp;ut_sk=1.XtyfYTChWtEDAEnaArekytqI_21646297_1646357366310.TaoPassword-WeiXin.ShareGlobalNavigation_1&amp;un=7e708d46d872c2684c6e4bed9157ce66&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;sp_tk=M1pYQzJmMFFQVU0=&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fnKzoxN&amp;bxsign=scdFsAipsuyvjQFRm8HtPLO_ktHt4vs6JRxOrx_N6UKyIFMU7O9RG6iZ3pSh-5S5w_b3bEeT1ZBX8AlcwSEsbSHxlQPZ6ubt3RWqbwHMMlUJhVUzPdJzJXFgpGF1cwL9dGW&amp;tk=3ZXC2f0QPUM&amp;app=chrome</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3x10螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5*4螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角块打印件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS5600杜邦线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色VCC*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色GND*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色SCL*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色SDA*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050杜邦线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色SDA*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色GND*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单通M3*10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双通M3*4铜柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木底板1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木底板2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2.5*6螺丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,15 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>2</v>
@@ -514,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -522,13 +563,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -536,30 +577,27 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -567,37 +605,105 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="L9">
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
